--- a/notebooks/example_input_data.xlsx
+++ b/notebooks/example_input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpk/Documents/Research/CurrentResearch/Projects/CCI/collaboration_646/Nick_sharp_workflow/neutron_analysis/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5347989D-2FF7-E749-A11C-37E8C9ED45F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C0395-E0E4-9045-9F1E-FFF9BC139DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1100" windowWidth="21420" windowHeight="19340" activeTab="2" xr2:uid="{7453B002-54E7-D54A-B24A-3C26F7621642}"/>
+    <workbookView xWindow="1340" yWindow="980" windowWidth="21420" windowHeight="19340" activeTab="2" xr2:uid="{7453B002-54E7-D54A-B24A-3C26F7621642}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
